--- a/file/download/custom.xlsx
+++ b/file/download/custom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="28035" windowHeight="12330"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20475" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="kamba" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>℃</t>
   </si>
   <si>
-    <t>供水温度-回水温度-供回水温差</t>
-  </si>
-  <si>
     <t>scatter-scatter-scatter</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>kWh</t>
   </si>
   <si>
-    <t>高温板换制热量-水源热泵制热量-太阳能集热量-供热量</t>
-  </si>
-  <si>
     <t>bar-bar-line-line</t>
   </si>
   <si>
@@ -109,9 +103,6 @@
     <t>供热量情况</t>
   </si>
   <si>
-    <t>供热量-水源热泵耗电量</t>
-  </si>
-  <si>
     <t>bar-line</t>
   </si>
   <si>
@@ -128,6 +119,18 @@
   </si>
   <si>
     <t>bar-bar-line</t>
+  </si>
+  <si>
+    <t>末端供水温度-末端回水温度-末端供回水温差</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>末端供热量-水源热泵耗电量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>高温板换制热量-水源热泵制热量-太阳能集热量-末端供热量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1070,10 +1073,15 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -1141,13 +1149,13 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1155,25 +1163,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1181,22 +1189,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -1207,25 +1215,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1233,25 +1241,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
         <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1259,25 +1267,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>4</v>
